--- a/jps_maze/src/jps_maze/res/board_creator_mini.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator_mini.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan\Documents\Johan\FFI-B_THI\WS_22-23\INTP\INTP-ros\jps_maze\src\jps_maze\res\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9CA17D-96FD-474A-8AB3-1310C8935F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704CFB4F-8ED0-4F0E-9EFB-FD625DC8839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board1" sheetId="1" r:id="rId1"/>
@@ -932,15 +932,15 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="10.921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -978,13 +978,13 @@
         <v>0</v>
       </c>
       <c r="M1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N1">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1022,13 +1022,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1380,9 +1380,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1424,9 +1424,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -1468,12 +1468,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1512,18 +1512,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>4</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>

--- a/jps_maze/src/jps_maze/res/board_creator_mini.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator_mini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704CFB4F-8ED0-4F0E-9EFB-FD625DC8839F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36514D0F-30DF-43C8-BD26-E8F39F7F56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.4">
@@ -1110,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>

--- a/jps_maze/src/jps_maze/res/board_creator_mini.xlsx
+++ b/jps_maze/src/jps_maze/res/board_creator_mini.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\root\INTP-ros\jps_maze\src\jps_maze\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36514D0F-30DF-43C8-BD26-E8F39F7F56C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84C2054F-2117-4FB9-898C-C5192726393A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12377" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1497,10 +1497,10 @@
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>1</v>
